--- a/mynavi.xlsx
+++ b/mynavi.xlsx
@@ -413,340 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>《月40万円スタート＆祝い金18～138万円も》頑張りが反映される環境【営業】賞与3回◎残業ほぼなし</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>株式会社PGSホーム　all003</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>06-6981-3917</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>営業総合職
-外壁塗装の訪問販売（光触媒コーティング）をお任せします。
-福岡市博多区（福岡支店）・久留米市（久留米支店）　※転勤なし
-【入社2ヶ月間】月給40万円～＋歩合給　【入社3ヶ月～】月給30万5,000円～＋高額歩合給　※別途通勤手当支給（上限月5万円まで）</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>レア案件◆憧れの《空港》で働いてみませんか？第二のスタートを応援します【手荷物検査スタッフ】全国募集</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>株式会社セノン　人事本部人材採用部採用二課（セコムグループ）</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>03-3288-7125</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>手荷物検査スタッフ
-《女性スタッフ活躍中》各空港にて手荷物検査場で手荷物検査やボディチェックをお任せいたします。
-全国37空港（北日本エリア・首都圏エリア・西日本エリア）
-月給17万5,000円～29万1,000円（勤務地により異なる）＋手当＋賞与　☆月収例：23万3,000円～25万6,000円　※詳細は下記</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>【東証プライム企業】で金融インフラを支える！＜ATM対応スタッフ＞日勤のみ／遠方転勤なし／研修あり</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>セコム株式会社　【東証プライム企業】</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>03-5775-8300</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ATM対応スタッフ
-障害発生時の初期対応や、書類・備品等の補充・回収など、ATMに関わる業務に就いていただきます。
-北九州市小倉北区
-月給21万5,000円～</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>急募★レア案件＜100名大募集！＞未経験OKのかんたん作業♪選挙会場の【ご案内スタッフ】糸島市</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>株式会社ウィルエージェンシー　福岡支店</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>092-477-6459</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>選挙会場案内スタッフ
-選挙会場でのご案内業務、受付業務をお任せします。
-福岡県糸島市
-時給1,150円～2,250円　◎日払いOK（規定あり）</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>未経験から金融インフラを支えるプロに！【セコムのATM対応スタッフ】夜勤なし◎契約は基本更新◎</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>セコム株式会社　【東証プライム企業】</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>03-5775-8300</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ATM対応スタッフ
-障害発生時の初期対応や、書類・備品等の補充・回収など、ATMに関わる業務に就いていただきます。
-福岡市中央区
-月給21万6,000円～</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>知識ゼロから社会貢献【セコムのATM対応スタッフ】日勤のみで無理なく◎最長70歳まで安定して働ける</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>セコム株式会社　【東証プライム企業】</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>03-5775-8300</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ATM対応スタッフ
-障害発生時の初期対応や、書類・備品等の補充・回収など、ATMに関わる業務に就いていただきます。
-大野城市
-月給21万6,000円～</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>【デリバリークルー】未経験歓迎◎お店自慢の料理をお届け！配達ノルマ＆時間設定はなし！【髪色自由】</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ガスト　大牟田ゆめタウン店＜018695＞</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0570-010-314, 0570-010-314</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>デリバリークルー
-＜未経験OK＞デリバリー業務をお任せします。
-大牟田市
-時給1,050円～</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>【デリバリークルー】未経験歓迎◎お店自慢の料理をお届け！配達ノルマ＆時間設定はなし！【髪色自由】</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ガスト　一枝店＜011238＞</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0570-010-314, 0570-010-314</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>デリバリークルー
-＜未経験OK＞デリバリー業務をお任せします。
-北九州市戸畑区
-時給1,142円～</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>《50代60代の正社員転職を応援》賞与3回／月40万円スタート【支店長候補】頑張りをしっかり還元★</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>株式会社PGSホーム　all020</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>06-6981-3917</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>支店長候補
-《テレアポ・契約業務なし》個人宅住宅ペイント・外壁塗装などの市場調査やリサーチ業務をお任せします。
-福岡市博多区（福岡支店）・久留米市（久留米支店）　※転勤なし
-【入社2ヶ月間】月給40万円～＋歩合給　【入社3ヶ月～】月給30万5,000円～＋高額歩合給　※別途通勤手当支給（上限月5万円まで）</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>【デリバリークルー】未経験歓迎◎お店自慢の料理をお届け！配達ノルマ＆時間設定はなし！【髪色自由】</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ガスト　若松高須東店＜011790＞</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0570-010-314, 0570-010-314</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>デリバリークルー
-＜未経験OK＞デリバリー業務をお任せします。
-北九州市若松区
-時給1,142円～</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>＜女性活躍中＞短時間もOK◎美味しいおこわをお客様にお勧め【おこわのたごさく／販売・調理スタッフ】</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>たごさく博多阪急店（22411）</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>03-6276-3354</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>販売・調理スタッフ
-『たごさく（デリカ）』での、おこわやお弁当などの販売・調理業務をお任せします。
-福岡市博多区
-時給1,100円～</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>【デリバリークルー】未経験歓迎◎お店自慢の料理をお届け！配達ノルマ＆時間設定はなし！【髪色自由】</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ガスト　和白店＜011916＞</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0570-010-314, 0570-010-314</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>デリバリークルー
-＜未経験OK＞デリバリー業務をお任せします。
-福岡市東区
-時給1,132円～</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>＜女性活躍中＞短時間もOK◎美味しいおこわをお客様にお勧め【おこわのたごさく／販売・調理スタッフ】</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>たごさく福岡三越店（21118）</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>03-6276-3354</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>販売・調理スタッフ
-『たごさく（デリカ）』での、おこわやお弁当などの販売・調理業務をお任せします。
-福岡市中央区
-時給1,100円～</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>